--- a/LightYieldEnergy/LightYields.xlsx
+++ b/LightYieldEnergy/LightYields.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Master\Skripte\Auswertung\LightYieldEnergy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A61FECA-CA53-4969-BF8F-815C5AEA9935}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B9B58C-9EA8-4515-90C1-DC31A064F956}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AE3E4AAA-CB7B-46F0-832D-9FAF15A2BF63}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>30°</t>
   </si>
@@ -44,11 +44,23 @@
   <si>
     <t>relative gain</t>
   </si>
+  <si>
+    <t>Grouped after light yield</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -78,9 +90,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D98336B-ED2B-4A34-AB24-E8E0FB6C4440}">
-  <dimension ref="A2:U42"/>
+  <dimension ref="A2:U58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U20" activeCellId="1" sqref="Q14 U20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D34" sqref="B34:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,28 +459,28 @@
         <v>597</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J3">
-        <v>192.65</v>
+        <v>528.72</v>
       </c>
       <c r="K3">
-        <v>260.06</v>
+        <v>664.89</v>
       </c>
       <c r="L3">
-        <v>361.68</v>
+        <v>865.18</v>
       </c>
       <c r="M3">
-        <v>597</v>
+        <v>381</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3">
         <f>K3/J3-1</f>
-        <v>0.34990916169218789</v>
+        <v>0.25754652746255102</v>
       </c>
       <c r="Q3">
         <f>L3/J3-1</f>
-        <v>0.87739423825590457</v>
+        <v>0.63636707520048397</v>
       </c>
       <c r="T3">
         <f>C3/B3-1</f>
@@ -495,28 +508,28 @@
         <v>687</v>
       </c>
       <c r="I4" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J4">
-        <v>133.28</v>
+        <v>208.54</v>
       </c>
       <c r="K4">
-        <v>180.08</v>
+        <v>282.95</v>
       </c>
       <c r="L4">
-        <v>247.78</v>
+        <v>407.11</v>
       </c>
       <c r="M4">
-        <v>687</v>
+        <v>586</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4">
-        <f t="shared" ref="P4:P10" si="0">K4/J4-1</f>
-        <v>0.35114045618247314</v>
+        <f t="shared" ref="P4:P8" si="0">K4/J4-1</f>
+        <v>0.35681404047185183</v>
       </c>
       <c r="Q4">
-        <f t="shared" ref="Q4:Q10" si="1">L4/J4-1</f>
-        <v>0.85909363745498202</v>
+        <f t="shared" ref="Q4:Q8" si="1">L4/J4-1</f>
+        <v>0.95219142610530372</v>
       </c>
       <c r="T4">
         <f t="shared" ref="T4:T18" si="2">C4/B4-1</f>
@@ -544,28 +557,28 @@
         <v>830</v>
       </c>
       <c r="I5" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>56.61</v>
+        <v>192.65</v>
       </c>
       <c r="K5">
-        <v>75.86</v>
+        <v>260.06</v>
       </c>
       <c r="L5">
-        <v>103.37</v>
+        <v>361.68</v>
       </c>
       <c r="M5">
-        <v>1042</v>
+        <v>597</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5">
         <f t="shared" si="0"/>
-        <v>0.34004592828122249</v>
+        <v>0.34990916169218789</v>
       </c>
       <c r="Q5">
         <f t="shared" si="1"/>
-        <v>0.8260024730612967</v>
+        <v>0.87739423825590457</v>
       </c>
       <c r="T5">
         <f t="shared" si="2"/>
@@ -593,28 +606,28 @@
         <v>1042</v>
       </c>
       <c r="I6" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J6">
-        <v>96.25</v>
+        <v>174.67</v>
       </c>
       <c r="K6">
-        <v>128.05000000000001</v>
+        <v>234.53</v>
       </c>
       <c r="L6">
-        <v>179.38</v>
+        <v>325.3</v>
       </c>
       <c r="M6">
-        <v>818</v>
+        <v>658</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6">
         <f t="shared" si="0"/>
-        <v>0.33038961038961046</v>
+        <v>0.34270338352321539</v>
       </c>
       <c r="Q6">
         <f t="shared" si="1"/>
-        <v>0.86368831168831162</v>
+        <v>0.86236903875880255</v>
       </c>
       <c r="T6">
         <f t="shared" si="2"/>
@@ -642,28 +655,28 @@
         <v>818</v>
       </c>
       <c r="I7" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>208.54</v>
+        <v>133.28</v>
       </c>
       <c r="K7">
-        <v>282.95</v>
+        <v>180.08</v>
       </c>
       <c r="L7">
-        <v>407.11</v>
+        <v>247.78</v>
       </c>
       <c r="M7">
-        <v>586</v>
+        <v>687</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>0.35681404047185183</v>
+        <v>0.35114045618247314</v>
       </c>
       <c r="Q7">
         <f t="shared" si="1"/>
-        <v>0.95219142610530372</v>
+        <v>0.85909363745498202</v>
       </c>
       <c r="T7">
         <f t="shared" si="2"/>
@@ -691,28 +704,28 @@
         <v>586</v>
       </c>
       <c r="I8" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J8">
-        <v>174.67</v>
+        <v>96.25</v>
       </c>
       <c r="K8">
-        <v>234.53</v>
+        <v>128.05000000000001</v>
       </c>
       <c r="L8">
-        <v>325.3</v>
+        <v>179.38</v>
       </c>
       <c r="M8">
-        <v>658</v>
+        <v>818</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8">
         <f t="shared" si="0"/>
-        <v>0.34270338352321539</v>
+        <v>0.33038961038961046</v>
       </c>
       <c r="Q8">
         <f t="shared" si="1"/>
-        <v>0.86236903875880255</v>
+        <v>0.86368831168831162</v>
       </c>
       <c r="T8">
         <f t="shared" si="2"/>
@@ -740,19 +753,19 @@
         <v>658</v>
       </c>
       <c r="I9" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J9">
-        <v>1259.81</v>
+        <v>56.61</v>
       </c>
       <c r="K9">
-        <v>1422.36</v>
+        <v>75.86</v>
       </c>
       <c r="L9">
-        <v>1576.89</v>
+        <v>103.37</v>
       </c>
       <c r="M9">
-        <v>190</v>
+        <v>1042</v>
       </c>
       <c r="O9" s="1"/>
       <c r="T9">
@@ -780,29 +793,14 @@
       <c r="E10">
         <v>190</v>
       </c>
-      <c r="I10" s="1">
-        <v>8</v>
-      </c>
-      <c r="J10">
-        <v>528.72</v>
-      </c>
-      <c r="K10">
-        <v>664.89</v>
-      </c>
-      <c r="L10">
-        <v>865.18</v>
-      </c>
-      <c r="M10">
-        <v>381</v>
-      </c>
       <c r="O10" s="1"/>
       <c r="P10">
-        <f t="shared" si="0"/>
-        <v>0.25754652746255102</v>
+        <f>K9/J9-1</f>
+        <v>0.34004592828122249</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="1"/>
-        <v>0.63636707520048397</v>
+        <f>L9/J9-1</f>
+        <v>0.8260024730612967</v>
       </c>
       <c r="T10">
         <f t="shared" si="2"/>
@@ -828,21 +826,6 @@
       </c>
       <c r="E11">
         <v>811</v>
-      </c>
-      <c r="I11" s="1">
-        <v>9</v>
-      </c>
-      <c r="J11">
-        <v>1397.6</v>
-      </c>
-      <c r="K11">
-        <v>1540.95</v>
-      </c>
-      <c r="L11">
-        <v>1633.78</v>
-      </c>
-      <c r="M11">
-        <v>150</v>
       </c>
       <c r="O11" s="1"/>
       <c r="T11">
@@ -871,19 +854,19 @@
         <v>510</v>
       </c>
       <c r="I12" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J12">
-        <v>1424.83</v>
+        <v>1259.81</v>
       </c>
       <c r="K12">
-        <v>1561.73</v>
+        <v>1422.36</v>
       </c>
       <c r="L12">
-        <v>1617.08</v>
+        <v>1576.89</v>
       </c>
       <c r="M12">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="O12" s="1"/>
       <c r="T12">
@@ -912,16 +895,16 @@
         <v>968</v>
       </c>
       <c r="I13" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J13">
-        <v>1423.75</v>
+        <v>1397.6</v>
       </c>
       <c r="K13">
-        <v>1528.59</v>
+        <v>1540.95</v>
       </c>
       <c r="L13">
-        <v>1626.45</v>
+        <v>1633.78</v>
       </c>
       <c r="M13">
         <v>150</v>
@@ -952,11 +935,26 @@
       <c r="E14">
         <v>327</v>
       </c>
-      <c r="P14">
+      <c r="I14" s="1">
+        <v>10</v>
+      </c>
+      <c r="J14">
+        <v>1424.83</v>
+      </c>
+      <c r="K14">
+        <v>1561.73</v>
+      </c>
+      <c r="L14">
+        <v>1617.08</v>
+      </c>
+      <c r="M14">
+        <v>150</v>
+      </c>
+      <c r="P14" s="2">
         <f>AVERAGE(P3:P13)</f>
-        <v>0.33264987257187323</v>
-      </c>
-      <c r="Q14">
+        <v>0.33264987257187312</v>
+      </c>
+      <c r="Q14" s="2">
         <f>AVERAGE(Q3:Q13)</f>
         <v>0.83958660007501218</v>
       </c>
@@ -985,6 +983,29 @@
       <c r="E15">
         <v>468</v>
       </c>
+      <c r="I15" s="1">
+        <v>11</v>
+      </c>
+      <c r="J15">
+        <v>1423.75</v>
+      </c>
+      <c r="K15">
+        <v>1528.59</v>
+      </c>
+      <c r="L15">
+        <v>1626.45</v>
+      </c>
+      <c r="M15">
+        <v>150</v>
+      </c>
+      <c r="P15" s="2">
+        <f>_xlfn.STDEV.P(P3:P10)/(SQRT(COUNT(P3:P10)))</f>
+        <v>1.1973685184300926E-2</v>
+      </c>
+      <c r="Q15" s="2">
+        <f>_xlfn.STDEV.P(Q3:Q10)/(SQRT(COUNT(Q3:Q10)))</f>
+        <v>3.4128336622255805E-2</v>
+      </c>
       <c r="T15">
         <f t="shared" si="2"/>
         <v>0.26134125579998013</v>
@@ -1070,112 +1091,56 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="T20">
+      <c r="T20" s="2">
         <f>AVERAGE(T3:T18)</f>
         <v>0.38681322489499359</v>
       </c>
-      <c r="U20">
+      <c r="U20" s="2">
         <f>AVERAGE(U3:U18)</f>
         <v>0.8285716693790306</v>
       </c>
     </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T21" s="2">
+        <f>_xlfn.STDEV.P(T3:T18)/(SQRT(COUNT(T3:T18)))</f>
+        <v>2.7323972375520849E-2</v>
+      </c>
+      <c r="U21" s="2">
+        <f>_xlfn.STDEV.P(U3:U18)/(SQRT(COUNT(U3:U18)))</f>
+        <v>7.7929524187680385E-2</v>
+      </c>
+    </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F26" s="1"/>
-      <c r="H26" t="s">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F28" s="1"/>
+      <c r="H28" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="H27" s="1">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>100.05</v>
-      </c>
-      <c r="J27">
-        <v>142.56</v>
-      </c>
-      <c r="K27">
-        <v>178.36</v>
-      </c>
-      <c r="L27">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>1</v>
-      </c>
-      <c r="B28">
-        <v>52</v>
-      </c>
-      <c r="C28">
-        <v>72.44</v>
-      </c>
-      <c r="D28">
-        <v>104.68</v>
-      </c>
-      <c r="E28">
-        <v>687</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="H28" s="1">
-        <v>3</v>
-      </c>
-      <c r="I28">
-        <v>78.430000000000007</v>
-      </c>
-      <c r="J28">
-        <v>108.14</v>
-      </c>
-      <c r="K28">
-        <v>153.66999999999999</v>
-      </c>
-      <c r="L28">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>2</v>
-      </c>
-      <c r="B29">
-        <v>32.020000000000003</v>
-      </c>
-      <c r="C29">
-        <v>43.74</v>
-      </c>
-      <c r="D29">
-        <v>60.27</v>
-      </c>
-      <c r="E29">
-        <v>830</v>
       </c>
       <c r="F29" s="1"/>
       <c r="H29" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I29">
-        <v>137.05000000000001</v>
+        <v>1395.81</v>
       </c>
       <c r="J29">
-        <v>192.08</v>
+        <v>1585.93</v>
       </c>
       <c r="K29">
-        <v>192.08</v>
+        <v>1711.44</v>
       </c>
       <c r="L29">
-        <v>818</v>
+        <v>327</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -1196,19 +1161,19 @@
       </c>
       <c r="F30" s="1"/>
       <c r="H30" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I30">
-        <v>369.99</v>
+        <v>599.14</v>
       </c>
       <c r="J30">
-        <v>513.95000000000005</v>
+        <v>755.72</v>
       </c>
       <c r="K30">
-        <v>667.2</v>
+        <v>1004.57</v>
       </c>
       <c r="L30">
-        <v>586</v>
+        <v>468</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
@@ -1229,19 +1194,19 @@
       </c>
       <c r="F31" s="1"/>
       <c r="H31" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I31">
-        <v>288.33</v>
+        <v>369.99</v>
       </c>
       <c r="J31">
-        <v>440.26</v>
+        <v>513.95000000000005</v>
       </c>
       <c r="K31">
-        <v>584.80999999999995</v>
+        <v>667.2</v>
       </c>
       <c r="L31">
-        <v>658</v>
+        <v>586</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
@@ -1262,129 +1227,473 @@
       </c>
       <c r="F32" s="1"/>
       <c r="H32" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>161</v>
+        <v>100.05</v>
       </c>
       <c r="J32">
-        <v>238.52</v>
+        <v>142.56</v>
       </c>
       <c r="K32">
-        <v>383</v>
+        <v>178.36</v>
       </c>
       <c r="L32">
-        <v>811</v>
+        <v>597</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>52</v>
+      </c>
+      <c r="C33">
+        <v>72.44</v>
+      </c>
+      <c r="D33">
+        <v>104.68</v>
+      </c>
+      <c r="E33">
+        <v>687</v>
+      </c>
       <c r="F33" s="1"/>
       <c r="H33" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I33">
-        <v>79.08</v>
+        <v>288.33</v>
       </c>
       <c r="J33">
-        <v>98.77</v>
+        <v>440.26</v>
       </c>
       <c r="K33">
-        <v>107.76</v>
+        <v>584.80999999999995</v>
       </c>
       <c r="L33">
-        <v>968</v>
+        <v>658</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>32.020000000000003</v>
+      </c>
+      <c r="C34">
+        <v>43.74</v>
+      </c>
+      <c r="D34">
+        <v>60.27</v>
+      </c>
+      <c r="E34">
+        <v>830</v>
+      </c>
+      <c r="F34" s="1"/>
       <c r="H34" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I34">
-        <v>1395.81</v>
+        <v>258.13</v>
       </c>
       <c r="J34">
-        <v>1585.93</v>
+        <v>371.23</v>
       </c>
       <c r="K34">
-        <v>1711.44</v>
+        <v>500.95</v>
       </c>
       <c r="L34">
-        <v>327</v>
+        <v>694</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="F35" s="1"/>
       <c r="H35" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I35">
-        <v>599.14</v>
+        <v>167.85</v>
       </c>
       <c r="J35">
-        <v>755.72</v>
+        <v>272.36</v>
       </c>
       <c r="K35">
-        <v>1004.57</v>
+        <v>398.88</v>
       </c>
       <c r="L35">
-        <v>468</v>
+        <v>738</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H36" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I36">
-        <v>167.85</v>
+        <v>161</v>
       </c>
       <c r="J36">
-        <v>272.36</v>
+        <v>238.52</v>
       </c>
       <c r="K36">
-        <v>398.88</v>
+        <v>383</v>
       </c>
       <c r="L36">
-        <v>738</v>
+        <v>811</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F37" s="1"/>
       <c r="H37" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="I37">
-        <v>258.13</v>
+        <v>137.05000000000001</v>
       </c>
       <c r="J37">
-        <v>371.23</v>
+        <v>192.08</v>
       </c>
       <c r="K37">
-        <v>500.95</v>
+        <v>192.08</v>
       </c>
       <c r="L37">
-        <v>694</v>
+        <v>818</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="H38" s="1">
+        <v>14</v>
+      </c>
+      <c r="I38">
+        <v>79.08</v>
+      </c>
+      <c r="J38">
+        <v>98.77</v>
+      </c>
+      <c r="K38">
+        <v>107.76</v>
+      </c>
+      <c r="L38">
+        <v>968</v>
+      </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
       <c r="F39" s="1"/>
+      <c r="H39" s="1">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>78.430000000000007</v>
+      </c>
+      <c r="J39">
+        <v>108.14</v>
+      </c>
+      <c r="K39">
+        <v>153.66999999999999</v>
+      </c>
+      <c r="L39">
+        <v>1042</v>
+      </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
+      <c r="A41" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="H42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="H43" s="1">
+        <v>15</v>
+      </c>
+      <c r="I43">
+        <v>1395.81</v>
+      </c>
+      <c r="J43">
+        <v>1585.93</v>
+      </c>
+      <c r="K43">
+        <v>1711.44</v>
+      </c>
+      <c r="L43">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>7</v>
+      </c>
+      <c r="B44">
+        <v>405.03</v>
+      </c>
+      <c r="C44">
+        <v>568.04</v>
+      </c>
+      <c r="D44">
+        <v>717.62</v>
+      </c>
+      <c r="E44">
+        <v>190</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="H44" s="1">
+        <v>16</v>
+      </c>
+      <c r="I44">
+        <v>599.14</v>
+      </c>
+      <c r="J44">
+        <v>755.72</v>
+      </c>
+      <c r="K44">
+        <v>1004.57</v>
+      </c>
+      <c r="L44">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>13</v>
+      </c>
+      <c r="B45">
+        <v>102.23</v>
+      </c>
+      <c r="C45">
+        <v>142.66</v>
+      </c>
+      <c r="D45">
+        <v>203.52</v>
+      </c>
+      <c r="E45">
+        <v>510</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="H45" s="1">
+        <v>5</v>
+      </c>
+      <c r="I45">
+        <v>369.99</v>
+      </c>
+      <c r="J45">
+        <v>513.95000000000005</v>
+      </c>
+      <c r="K45">
+        <v>667.2</v>
+      </c>
+      <c r="L45">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>100.05</v>
+      </c>
+      <c r="C46">
+        <v>142.56</v>
+      </c>
+      <c r="D46">
+        <v>178.36</v>
+      </c>
+      <c r="E46">
+        <v>597</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="H46" s="1">
+        <v>19</v>
+      </c>
+      <c r="I46">
+        <v>392.08</v>
+      </c>
+      <c r="J46">
+        <v>518.29</v>
+      </c>
+      <c r="K46">
+        <v>651.89</v>
+      </c>
+      <c r="L46">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>52</v>
+      </c>
+      <c r="C47">
+        <v>72.44</v>
+      </c>
+      <c r="D47">
+        <v>104.68</v>
+      </c>
+      <c r="E47">
+        <v>687</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="H47" s="1">
+        <v>6</v>
+      </c>
+      <c r="I47">
+        <v>288.33</v>
+      </c>
+      <c r="J47">
+        <v>440.26</v>
+      </c>
+      <c r="K47">
+        <v>584.80999999999995</v>
+      </c>
+      <c r="L47">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>32.020000000000003</v>
+      </c>
+      <c r="C48">
+        <v>43.74</v>
+      </c>
+      <c r="D48">
+        <v>60.27</v>
+      </c>
+      <c r="E48">
+        <v>830</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="H48" s="1">
+        <v>18</v>
+      </c>
+      <c r="I48">
+        <v>258.13</v>
+      </c>
+      <c r="J48">
+        <v>371.23</v>
+      </c>
+      <c r="K48">
+        <v>500.95</v>
+      </c>
+      <c r="L48">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="49" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F49" s="1"/>
+      <c r="H49" s="1">
+        <v>17</v>
+      </c>
+      <c r="I49">
+        <v>167.85</v>
+      </c>
+      <c r="J49">
+        <v>272.36</v>
+      </c>
+      <c r="K49">
+        <v>398.88</v>
+      </c>
+      <c r="L49">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="50" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="H50" s="1">
+        <v>12</v>
+      </c>
+      <c r="I50">
+        <v>161</v>
+      </c>
+      <c r="J50">
+        <v>238.52</v>
+      </c>
+      <c r="K50">
+        <v>383</v>
+      </c>
+      <c r="L50">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="51" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="H51" s="1">
+        <v>4</v>
+      </c>
+      <c r="I51">
+        <v>137.05000000000001</v>
+      </c>
+      <c r="J51">
+        <v>192.08</v>
+      </c>
+      <c r="K51">
+        <v>192.08</v>
+      </c>
+      <c r="L51">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="52" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="H52" s="1">
+        <v>14</v>
+      </c>
+      <c r="I52">
+        <v>79.08</v>
+      </c>
+      <c r="J52">
+        <v>98.77</v>
+      </c>
+      <c r="K52">
+        <v>107.76</v>
+      </c>
+      <c r="L52">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="53" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F53" s="1"/>
+      <c r="H53" s="1">
+        <v>3</v>
+      </c>
+      <c r="I53">
+        <v>78.430000000000007</v>
+      </c>
+      <c r="J53">
+        <v>108.14</v>
+      </c>
+      <c r="K53">
+        <v>153.66999999999999</v>
+      </c>
+      <c r="L53">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="57" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F24:I39">
-    <sortCondition ref="F24:F39"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A44:E48">
+    <sortCondition ref="E44:E48"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
